--- a/TEST/TRUEvalue.xlsx
+++ b/TEST/TRUEvalue.xlsx
@@ -386,7 +386,7 @@
         <v>-54.13281715653028</v>
       </c>
       <c r="C2" t="n">
-        <v>2530.656967620494</v>
+        <v>2540.332645610164</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>-55.14465407849907</v>
       </c>
       <c r="C3" t="n">
-        <v>2539.370439140195</v>
+        <v>2539.978973267089</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>-56.09512876637588</v>
       </c>
       <c r="C4" t="n">
-        <v>2533.7849574785</v>
+        <v>2540.875519818252</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>-56.99126013884953</v>
       </c>
       <c r="C5" t="n">
-        <v>2537.432442401649</v>
+        <v>2540.290504192751</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>-57.8389276990173</v>
       </c>
       <c r="C6" t="n">
-        <v>2541.877916664008</v>
+        <v>2538.46930295323</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>-58.64310554808991</v>
       </c>
       <c r="C7" t="n">
-        <v>2531.392850620152</v>
+        <v>2542.387886455135</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>-59.40803924451467</v>
       </c>
       <c r="C8" t="n">
-        <v>2546.600262647873</v>
+        <v>2540.509804961948</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>-60.13738148230183</v>
       </c>
       <c r="C9" t="n">
-        <v>2539.530944977693</v>
+        <v>2539.968788745504</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>-60.83429758485528</v>
       </c>
       <c r="C10" t="n">
-        <v>2546.489671110009</v>
+        <v>2538.052546480422</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>-61.50154853040915</v>
       </c>
       <c r="C11" t="n">
-        <v>2552.585521117094</v>
+        <v>2541.0248492491</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>-62.14155701768074</v>
       </c>
       <c r="C12" t="n">
-        <v>2524.3038410481</v>
+        <v>2539.035982906413</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>-62.75646056636671</v>
       </c>
       <c r="C13" t="n">
-        <v>2534.292110386059</v>
+        <v>2539.778359514349</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>-63.34815459075962</v>
       </c>
       <c r="C14" t="n">
-        <v>2540.498309810878</v>
+        <v>2540.770584786713</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>-63.9183276360743</v>
       </c>
       <c r="C15" t="n">
-        <v>2531.425883474219</v>
+        <v>2540.369849342795</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>-64.4684904287725</v>
       </c>
       <c r="C16" t="n">
-        <v>2521.279891406923</v>
+        <v>2539.808373115045</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>-65</v>
       </c>
       <c r="C17" t="n">
-        <v>2532.092378613117</v>
+        <v>2538.235164346025</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>-65.51407985203743</v>
       </c>
       <c r="C18" t="n">
-        <v>2534.79904923534</v>
+        <v>2537.805409250215</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>-66.01183692196879</v>
       </c>
       <c r="C19" t="n">
-        <v>2531.503478079036</v>
+        <v>2542.11385491356</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>-66.49427593421193</v>
       </c>
       <c r="C20" t="n">
-        <v>2539.938441170177</v>
+        <v>2542.663244402435</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>-66.9623116098456</v>
       </c>
       <c r="C21" t="n">
-        <v>2547.042445589663</v>
+        <v>2540.852705727791</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>-67.41677910566514</v>
       </c>
       <c r="C22" t="n">
-        <v>2533.662093776567</v>
+        <v>2541.138917833513</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>-67.85844298231926</v>
       </c>
       <c r="C23" t="n">
-        <v>2524.874588950129</v>
+        <v>2541.203898288909</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>-68.28800494343871</v>
       </c>
       <c r="C24" t="n">
-        <v>2534.473051718751</v>
+        <v>2539.162560348459</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>-68.70611054248704</v>
       </c>
       <c r="C25" t="n">
-        <v>2530.744641599675</v>
+        <v>2539.399845613152</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>-69.11335501827682</v>
       </c>
       <c r="C26" t="n">
-        <v>2559.936069491114</v>
+        <v>2540.401017445232</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>-69.51028839155964</v>
       </c>
       <c r="C27" t="n">
-        <v>2551.664396864617</v>
+        <v>2541.198832012757</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>-69.89741993220264</v>
       </c>
       <c r="C28" t="n">
-        <v>2543.515816854319</v>
+        <v>2540.479572606361</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>-70.2752220879844</v>
       </c>
       <c r="C29" t="n">
-        <v>2527.441764785648</v>
+        <v>2540.504913978574</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>-70.64413395104327</v>
       </c>
       <c r="C30" t="n">
-        <v>2521.515424928488</v>
+        <v>2538.978966653365</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>-71.00456432577155</v>
       </c>
       <c r="C31" t="n">
-        <v>2516.065596525686</v>
+        <v>2541.678789763112</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>-71.35689445191011</v>
       </c>
       <c r="C32" t="n">
-        <v>2552.140906874128</v>
+        <v>2540.058347101731</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>-71.70148042832503</v>
       </c>
       <c r="C33" t="n">
-        <v>2543.934211530799</v>
+        <v>2539.246418176579</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>-72.0386553760996</v>
       </c>
       <c r="C34" t="n">
-        <v>2546.594823820772</v>
+        <v>2538.769990381566</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>-72.36873137387889</v>
       </c>
       <c r="C35" t="n">
-        <v>2523.266554389206</v>
+        <v>2540.389844684215</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>-72.69200119364953</v>
       </c>
       <c r="C36" t="n">
-        <v>2540.349585432319</v>
+        <v>2541.107650572735</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>-73.00873986115047</v>
       </c>
       <c r="C37" t="n">
-        <v>2537.598383005625</v>
+        <v>2540.503485038161</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>-73.31920606175569</v>
       </c>
       <c r="C38" t="n">
-        <v>2522.857101831576</v>
+        <v>2540.814777900943</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>-73.62364340983643</v>
       </c>
       <c r="C39" t="n">
-        <v>2542.088552314679</v>
+        <v>2540.249858924531</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>-73.92228159720867</v>
       </c>
       <c r="C40" t="n">
-        <v>2504.676128673327</v>
+        <v>2538.954988295023</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>-74.21533743422935</v>
       </c>
       <c r="C41" t="n">
-        <v>2523.823898146235</v>
+        <v>2540.592048892031</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>-74.50301579536239</v>
       </c>
       <c r="C42" t="n">
-        <v>2536.204859138549</v>
+        <v>2539.429467303969</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>-74.78551047954402</v>
       </c>
       <c r="C43" t="n">
-        <v>2547.964741271637</v>
+        <v>2541.503189981043</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>-75.06300499439712</v>
       </c>
       <c r="C44" t="n">
-        <v>2549.03772510576</v>
+        <v>2539.78730009332</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>-75.33567327224222</v>
       </c>
       <c r="C45" t="n">
-        <v>2545.982880194913</v>
+        <v>2540.713152576247</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>-75.60368032490159</v>
       </c>
       <c r="C46" t="n">
-        <v>2531.117890870542</v>
+        <v>2540.439662787632</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>-75.86718284346972</v>
       </c>
       <c r="C47" t="n">
-        <v>2527.770930585183</v>
+        <v>2540.076729527889</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>-76.12632974850887</v>
       </c>
       <c r="C48" t="n">
-        <v>2548.817408428057</v>
+        <v>2540.217458846851</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>-76.38126269550715</v>
       </c>
       <c r="C49" t="n">
-        <v>2524.478645740054</v>
+        <v>2540.186949994621</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>-76.63211653989448</v>
       </c>
       <c r="C50" t="n">
-        <v>2534.515916354236</v>
+        <v>2539.26634611107</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>-76.8790197654385</v>
       </c>
       <c r="C51" t="n">
-        <v>2546.524205104874</v>
+        <v>2540.242107580681</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>-77.12209487942727</v>
       </c>
       <c r="C52" t="n">
-        <v>2540.03317994289</v>
+        <v>2539.829930589157</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>-77.36145877768163</v>
       </c>
       <c r="C53" t="n">
-        <v>2534.697011774758</v>
+        <v>2539.1538095625</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>-77.59722308212001</v>
       </c>
       <c r="C54" t="n">
-        <v>2555.15696200312</v>
+        <v>2541.443655813201</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>-77.82949445331531</v>
       </c>
       <c r="C55" t="n">
-        <v>2531.564898639981</v>
+        <v>2538.906620924115</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>-78.05837488023509</v>
       </c>
       <c r="C56" t="n">
-        <v>2533.375899941528</v>
+        <v>2537.74090036067</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>-78.28396194913485</v>
       </c>
       <c r="C57" t="n">
-        <v>2547.869272878778</v>
+        <v>2540.436986979357</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>-78.50634909337879</v>
       </c>
       <c r="C58" t="n">
-        <v>2544.062887717619</v>
+        <v>2540.676279068719</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>-78.72562582578897</v>
       </c>
       <c r="C59" t="n">
-        <v>2550.578749861771</v>
+        <v>2540.93733562625</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>-78.94187795496863</v>
       </c>
       <c r="C60" t="n">
-        <v>2552.105617470917</v>
+        <v>2539.659152613154</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>-79.15518778690841</v>
       </c>
       <c r="C61" t="n">
-        <v>2529.265093618068</v>
+        <v>2539.766799236891</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>-79.36563431306054</v>
       </c>
       <c r="C62" t="n">
-        <v>2547.327934874815</v>
+        <v>2538.950946392251</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>-79.57329338595673</v>
       </c>
       <c r="C63" t="n">
-        <v>2541.722103089917</v>
+        <v>2540.010346431398</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>-79.77823788334676</v>
       </c>
       <c r="C64" t="n">
-        <v>2550.679403413003</v>
+        <v>2540.31786699376</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>-79.98053786174651</v>
       </c>
       <c r="C65" t="n">
-        <v>2552.951300690302</v>
+        <v>2541.071807572795</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>-80.18026070020511</v>
       </c>
       <c r="C66" t="n">
-        <v>2543.498014714217</v>
+        <v>2541.467160561323</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>-80.37747123502933</v>
       </c>
       <c r="C67" t="n">
-        <v>2531.270448996162</v>
+        <v>2540.050708855971</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>-80.57223188613942</v>
       </c>
       <c r="C68" t="n">
-        <v>2535.118523001423</v>
+        <v>2540.251372569314</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>-80.76460277567234</v>
       </c>
       <c r="C69" t="n">
-        <v>2539.902265083004</v>
+        <v>2539.525688458486</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>-80.95464183939643</v>
       </c>
       <c r="C70" t="n">
-        <v>2532.741294976245</v>
+        <v>2539.75933576817</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>-81.1424049314541</v>
       </c>
       <c r="C71" t="n">
-        <v>2530.39501202118</v>
+        <v>2540.493794117693</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>-81.32794592290614</v>
       </c>
       <c r="C72" t="n">
-        <v>2545.581207124235</v>
+        <v>2539.1620205043</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>-81.51131679451296</v>
       </c>
       <c r="C73" t="n">
-        <v>2516.557022844533</v>
+        <v>2540.232485615032</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>-81.6925677241523</v>
       </c>
       <c r="C74" t="n">
-        <v>2546.856408529628</v>
+        <v>2539.71340532061</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>-81.87174716924125</v>
       </c>
       <c r="C75" t="n">
-        <v>2536.278371278801</v>
+        <v>2539.772390691005</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>-82.04890194450152</v>
       </c>
       <c r="C76" t="n">
-        <v>2544.933873867772</v>
+        <v>2539.995676104088</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>-82.2240772953798</v>
       </c>
       <c r="C77" t="n">
-        <v>2538.313787521277</v>
+        <v>2539.943236092831</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>-82.39731696741164</v>
       </c>
       <c r="C78" t="n">
-        <v>2536.436657058502</v>
+        <v>2539.228988350734</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>-82.5686632717947</v>
       </c>
       <c r="C79" t="n">
-        <v>2531.500942969293</v>
+        <v>2540.248841050022</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>-82.73815714741723</v>
       </c>
       <c r="C80" t="n">
-        <v>2533.579792323452</v>
+        <v>2539.924683054743</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>-82.90583821956929</v>
       </c>
       <c r="C81" t="n">
-        <v>2532.694025220177</v>
+        <v>2539.363703288343</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>-83.07174485554756</v>
       </c>
       <c r="C82" t="n">
-        <v>2533.853569668934</v>
+        <v>2541.117216434864</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>-83.23591421734858</v>
       </c>
       <c r="C83" t="n">
-        <v>2537.674948627019</v>
+        <v>2539.078560530711</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>-83.39838231163159</v>
       </c>
       <c r="C84" t="n">
-        <v>2540.221316787387</v>
+        <v>2538.829643394852</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>-83.55918403711922</v>
       </c>
       <c r="C85" t="n">
-        <v>2535.723323307218</v>
+        <v>2539.483767403534</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>-83.71835322959171</v>
       </c>
       <c r="C86" t="n">
-        <v>2536.753996890629</v>
+        <v>2540.53708879329</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>-83.87592270462017</v>
       </c>
       <c r="C87" t="n">
-        <v>2537.204883246926</v>
+        <v>2540.200080425274</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>-84.03192429817356</v>
       </c>
       <c r="C88" t="n">
-        <v>2555.151797128954</v>
+        <v>2541.096058970157</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>-84.18638890522539</v>
       </c>
       <c r="C89" t="n">
-        <v>2529.721458089289</v>
+        <v>2539.923497860208</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>-84.33934651647689</v>
       </c>
       <c r="C90" t="n">
-        <v>2549.697323127125</v>
+        <v>2539.878222072735</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>-84.49082625330614</v>
       </c>
       <c r="C91" t="n">
-        <v>2553.915206286775</v>
+        <v>2541.403726251756</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>-84.64085640104494</v>
       </c>
       <c r="C92" t="n">
-        <v>2533.522741305855</v>
+        <v>2541.430430890714</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>-84.78946444067839</v>
       </c>
       <c r="C93" t="n">
-        <v>2541.023562529368</v>
+        <v>2539.630847901679</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>-84.93667707905624</v>
       </c>
       <c r="C94" t="n">
-        <v>2539.36324756307</v>
+        <v>2541.026300803049</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>-85.08252027769906</v>
       </c>
       <c r="C95" t="n">
-        <v>2552.886712746621</v>
+        <v>2539.672078132517</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>-85.22701928027669</v>
       </c>
       <c r="C96" t="n">
-        <v>2527.824407163827</v>
+        <v>2537.377231911205</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>-85.37019863883211</v>
       </c>
       <c r="C97" t="n">
-        <v>2537.734876736765</v>
+        <v>2538.993257894597</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>-85.51208223881851</v>
       </c>
       <c r="C98" t="n">
-        <v>2521.196172223694</v>
+        <v>2540.844266296304</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>-85.65269332301374</v>
       </c>
       <c r="C99" t="n">
-        <v>2540.605779101032</v>
+        <v>2540.060841689967</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>-85.79205451437163</v>
       </c>
       <c r="C100" t="n">
-        <v>2558.409595544619</v>
+        <v>2541.825481279923</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>-85.93018783786684</v>
       </c>
       <c r="C101" t="n">
-        <v>2544.190441389957</v>
+        <v>2542.75382054539</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>-86.06711474138557</v>
       </c>
       <c r="C102" t="n">
-        <v>2549.270863923216</v>
+        <v>2540.425906661719</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>-86.20285611571194</v>
       </c>
       <c r="C103" t="n">
-        <v>2548.008659600695</v>
+        <v>2539.917068517565</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>-86.33743231365662</v>
       </c>
       <c r="C104" t="n">
-        <v>2548.179339115192</v>
+        <v>2541.186785831305</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>-86.47086316837131</v>
       </c>
       <c r="C105" t="n">
-        <v>2544.603333596984</v>
+        <v>2538.328765290677</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>-86.60316801089054</v>
       </c>
       <c r="C106" t="n">
-        <v>2536.188060943393</v>
+        <v>2539.334315778834</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>-86.73436568693944</v>
       </c>
       <c r="C107" t="n">
-        <v>2536.517364711017</v>
+        <v>2540.973627870078</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>-86.86447457304403</v>
       </c>
       <c r="C108" t="n">
-        <v>2548.590761574892</v>
+        <v>2540.60013027558</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>-86.9935125919786</v>
       </c>
       <c r="C109" t="n">
-        <v>2550.620478273086</v>
+        <v>2538.774113211454</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>-87.12149722758245</v>
       </c>
       <c r="C110" t="n">
-        <v>2538.312023757831</v>
+        <v>2538.84042583064</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>-87.24844553897688</v>
       </c>
       <c r="C111" t="n">
-        <v>2533.624117253873</v>
+        <v>2541.992031444341</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>-87.37437417421103</v>
       </c>
       <c r="C112" t="n">
-        <v>2538.115541225726</v>
+        <v>2540.432860692926</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>-87.49929938336422</v>
       </c>
       <c r="C113" t="n">
-        <v>2532.9932502181</v>
+        <v>2537.403617251681</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>-87.62323703113023</v>
       </c>
       <c r="C114" t="n">
-        <v>2538.241458960368</v>
+        <v>2539.739806291718</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>-87.74620260890825</v>
       </c>
       <c r="C115" t="n">
-        <v>2546.424770727805</v>
+        <v>2540.661761416477</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>-87.86821124642309</v>
       </c>
       <c r="C116" t="n">
-        <v>2542.137825058828</v>
+        <v>2540.780617882755</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>-87.98927772289701</v>
       </c>
       <c r="C117" t="n">
-        <v>2553.256615145468</v>
+        <v>2540.007389433458</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>-88.10941647779329</v>
       </c>
       <c r="C118" t="n">
-        <v>2542.506054463563</v>
+        <v>2541.083860232849</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>-88.22864162115138</v>
       </c>
       <c r="C119" t="n">
-        <v>2551.081195764662</v>
+        <v>2539.47997903612</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>-88.346966943532</v>
       </c>
       <c r="C120" t="n">
-        <v>2542.077881991593</v>
+        <v>2538.941245268012</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>-88.46440592558974</v>
       </c>
       <c r="C121" t="n">
-        <v>2541.445446285936</v>
+        <v>2540.425616525313</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>-88.58097174728992</v>
       </c>
       <c r="C122" t="n">
-        <v>2555.377241434521</v>
+        <v>2539.997681622503</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>-88.69667729678505</v>
       </c>
       <c r="C123" t="n">
-        <v>2548.034059427575</v>
+        <v>2538.82032612671</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>-88.81153517896649</v>
       </c>
       <c r="C124" t="n">
-        <v>2532.298817387413</v>
+        <v>2539.728945884216</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>-88.92555772370484</v>
       </c>
       <c r="C125" t="n">
-        <v>2556.882287331472</v>
+        <v>2540.556501176902</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>-89.03875699379303</v>
       </c>
       <c r="C126" t="n">
-        <v>2521.594034224469</v>
+        <v>2539.067640416685</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>-89.1511447926046</v>
       </c>
       <c r="C127" t="n">
-        <v>2528.01086738423</v>
+        <v>2539.853350611877</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>-89.26273267147943</v>
       </c>
       <c r="C128" t="n">
-        <v>2539.486066043097</v>
+        <v>2541.473597774318</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>-89.37353193684854</v>
       </c>
       <c r="C129" t="n">
-        <v>2518.237530160832</v>
+        <v>2539.037452693663</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>-89.48355365710894</v>
       </c>
       <c r="C130" t="n">
-        <v>2555.167835406716</v>
+        <v>2539.965024473438</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>-89.59280866925872</v>
       </c>
       <c r="C131" t="n">
-        <v>2522.46636134317</v>
+        <v>2539.869321630676</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>-89.7013075853028</v>
       </c>
       <c r="C132" t="n">
-        <v>2543.793658500748</v>
+        <v>2539.960833724787</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>-89.80906079843838</v>
       </c>
       <c r="C133" t="n">
-        <v>2541.519592644464</v>
+        <v>2540.073761670219</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>-89.91607848902936</v>
       </c>
       <c r="C134" t="n">
-        <v>2548.484536668067</v>
+        <v>2541.741385002516</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>-90.02237063037816</v>
       </c>
       <c r="C135" t="n">
-        <v>2529.892475440395</v>
+        <v>2539.428844176261</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>-90.1279469943033</v>
       </c>
       <c r="C136" t="n">
-        <v>2535.640720586683</v>
+        <v>2541.201741856843</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>-90.2328171565303</v>
       </c>
       <c r="C137" t="n">
-        <v>2535.534635453528</v>
+        <v>2539.440295350777</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>-90.33699050190363</v>
       </c>
       <c r="C138" t="n">
-        <v>2536.143468107075</v>
+        <v>2540.620152092236</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>-90.44047622942651</v>
       </c>
       <c r="C139" t="n">
-        <v>2539.591614813208</v>
+        <v>2540.619623879481</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>-90.54328335713552</v>
       </c>
       <c r="C140" t="n">
-        <v>2529.248406588703</v>
+        <v>2539.703498453863</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>-90.64542072681652</v>
       </c>
       <c r="C141" t="n">
-        <v>2529.956565410286</v>
+        <v>2540.885261736945</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>-90.74689700856774</v>
       </c>
       <c r="C142" t="n">
-        <v>2552.624964011211</v>
+        <v>2541.594855441638</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>-90.84772070521628</v>
       </c>
       <c r="C143" t="n">
-        <v>2540.269538965859</v>
+        <v>2541.202899996624</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>-90.94790015659355</v>
       </c>
       <c r="C144" t="n">
-        <v>2548.860738673286</v>
+        <v>2540.33948448617</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>-91.04744354367487</v>
       </c>
       <c r="C145" t="n">
-        <v>2551.882214749005</v>
+        <v>2540.127650258407</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>-91.14635889258851</v>
       </c>
       <c r="C146" t="n">
-        <v>2532.371586865199</v>
+        <v>2541.061415469982</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>-91.24465407849911</v>
       </c>
       <c r="C147" t="n">
-        <v>2539.889299062876</v>
+        <v>2539.394974411533</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>-91.34233682937</v>
       </c>
       <c r="C148" t="n">
-        <v>2542.76467791662</v>
+        <v>2539.773978962817</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>-91.4394147296092</v>
       </c>
       <c r="C149" t="n">
-        <v>2539.956227980949</v>
+        <v>2539.903425589759</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>-91.53589522360309</v>
       </c>
       <c r="C150" t="n">
-        <v>2564.192153024168</v>
+        <v>2539.235589230149</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>-91.63178561914211</v>
       </c>
       <c r="C151" t="n">
-        <v>2552.411052182769</v>
+        <v>2540.205176068123</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>-91.72709309074223</v>
       </c>
       <c r="C152" t="n">
-        <v>2537.963752585463</v>
+        <v>2540.752386092914</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>-91.82182468286621</v>
       </c>
       <c r="C153" t="n">
-        <v>2536.108475538361</v>
+        <v>2538.376052241425</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>-91.91598731304798</v>
       </c>
       <c r="C154" t="n">
-        <v>2544.397344904884</v>
+        <v>2540.146685000018</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>-92.00958777492387</v>
       </c>
       <c r="C155" t="n">
-        <v>2526.356004441048</v>
+        <v>2539.972941787277</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>-92.10263274117384</v>
       </c>
       <c r="C156" t="n">
-        <v>2532.684745512508</v>
+        <v>2542.780059131633</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>-92.19512876637592</v>
       </c>
       <c r="C157" t="n">
-        <v>2552.115530556359</v>
+        <v>2537.76813581975</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>-92.28708228977698</v>
       </c>
       <c r="C158" t="n">
-        <v>2531.800047426046</v>
+        <v>2539.633265295385</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>-92.37849963798274</v>
       </c>
       <c r="C159" t="n">
-        <v>2524.104906930775</v>
+        <v>2539.27758957212</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>-92.46938702756974</v>
       </c>
       <c r="C160" t="n">
-        <v>2549.256465417628</v>
+        <v>2541.496099756476</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>-92.55975056762207</v>
       </c>
       <c r="C161" t="n">
-        <v>2552.941014729186</v>
+        <v>2541.70126232452</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>-92.64959626219544</v>
       </c>
       <c r="C162" t="n">
-        <v>2529.927487694883</v>
+        <v>2538.985745405083</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>-92.73893001271102</v>
       </c>
       <c r="C163" t="n">
-        <v>2554.590756862453</v>
+        <v>2540.114648392886</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>-92.82775762028145</v>
       </c>
       <c r="C164" t="n">
-        <v>2543.22643190798</v>
+        <v>2540.847047533027</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>-92.9160847879713</v>
       </c>
       <c r="C165" t="n">
-        <v>2540.311178635094</v>
+        <v>2540.716868339503</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>-93.00391712299437</v>
       </c>
       <c r="C166" t="n">
-        <v>2527.794447625489</v>
+        <v>2538.379949086284</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>-93.09126013884958</v>
       </c>
       <c r="C167" t="n">
-        <v>2535.220392363667</v>
+        <v>2542.314202814974</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>-93.17811925739778</v>
       </c>
       <c r="C168" t="n">
-        <v>2540.495236617985</v>
+        <v>2540.071928136811</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>-93.26449981088143</v>
       </c>
       <c r="C169" t="n">
-        <v>2542.987962025278</v>
+        <v>2539.781464795211</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>-93.35040704388872</v>
       </c>
       <c r="C170" t="n">
-        <v>2531.023535425589</v>
+        <v>2540.39397016258</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>-93.4358461152645</v>
       </c>
       <c r="C171" t="n">
-        <v>2548.85338194949</v>
+        <v>2541.051793971388</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>-93.52082209996902</v>
       </c>
       <c r="C172" t="n">
-        <v>2543.68622192435</v>
+        <v>2538.29612705096</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>-93.605339990887</v>
       </c>
       <c r="C173" t="n">
-        <v>2540.531615357632</v>
+        <v>2539.445726387568</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>-93.68940470058784</v>
       </c>
       <c r="C174" t="n">
-        <v>2555.484477259738</v>
+        <v>2539.067627924933</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>-93.77302106303907</v>
       </c>
       <c r="C175" t="n">
-        <v>2541.482809979092</v>
+        <v>2539.7609169</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>-93.85619383527434</v>
       </c>
       <c r="C176" t="n">
-        <v>2544.403197013641</v>
+        <v>2538.903717441216</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>-93.93892769901736</v>
       </c>
       <c r="C177" t="n">
-        <v>2542.656735107797</v>
+        <v>2538.926585432337</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>-94.0212272622632</v>
       </c>
       <c r="C178" t="n">
-        <v>2547.929875424696</v>
+        <v>2542.640258671182</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>-94.10309706081837</v>
       </c>
       <c r="C179" t="n">
-        <v>2550.014262285974</v>
+        <v>2538.833638164696</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>-94.18454155980086</v>
       </c>
       <c r="C180" t="n">
-        <v>2535.099108949403</v>
+        <v>2540.261073825875</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>-94.26556515510138</v>
       </c>
       <c r="C181" t="n">
-        <v>2537.103194193669</v>
+        <v>2539.943964190846</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>-94.34617217480712</v>
       </c>
       <c r="C182" t="n">
-        <v>2525.511405690828</v>
+        <v>2539.848956757201</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>-94.426366880589</v>
       </c>
       <c r="C183" t="n">
-        <v>2533.039782419416</v>
+        <v>2540.301795314635</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>-94.50615346905373</v>
       </c>
       <c r="C184" t="n">
-        <v>2548.629894747969</v>
+        <v>2538.636563581271</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>-94.58553607306149</v>
       </c>
       <c r="C185" t="n">
-        <v>2537.94082485988</v>
+        <v>2540.229321425074</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>-94.66451876301062</v>
       </c>
       <c r="C186" t="n">
-        <v>2528.102180147531</v>
+        <v>2539.7046472299</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>-94.74310554808994</v>
       </c>
       <c r="C187" t="n">
-        <v>2554.582795856625</v>
+        <v>2539.910032079924</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>-94.82130037749987</v>
       </c>
       <c r="C188" t="n">
-        <v>2553.836417132632</v>
+        <v>2542.036060061304</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>-94.89910714164333</v>
       </c>
       <c r="C189" t="n">
-        <v>2545.410552181365</v>
+        <v>2540.832902709052</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>-94.9765296732872</v>
       </c>
       <c r="C190" t="n">
-        <v>2536.236130949207</v>
+        <v>2539.355788698646</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>-95.05357174869516</v>
       </c>
       <c r="C191" t="n">
-        <v>2534.56451230873</v>
+        <v>2540.743583210557</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>-95.13023708873294</v>
       </c>
       <c r="C192" t="n">
-        <v>2538.605832042349</v>
+        <v>2539.534073468787</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>-95.20652935994664</v>
       </c>
       <c r="C193" t="n">
-        <v>2523.52847890367</v>
+        <v>2539.912483461228</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>-95.28245217561494</v>
       </c>
       <c r="C194" t="n">
-        <v>2538.481075148638</v>
+        <v>2541.610199222294</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>-95.3580090967759</v>
       </c>
       <c r="C195" t="n">
-        <v>2542.097790966272</v>
+        <v>2539.546954679117</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>-95.43320363322925</v>
       </c>
       <c r="C196" t="n">
-        <v>2535.529433381</v>
+        <v>2538.022442522535</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>-95.50803924451469</v>
       </c>
       <c r="C197" t="n">
-        <v>2565.916364125394</v>
+        <v>2537.710671653575</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>-95.58251934086691</v>
       </c>
       <c r="C198" t="n">
-        <v>2558.045200725473</v>
+        <v>2541.017679092274</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>-95.65664728414814</v>
       </c>
       <c r="C199" t="n">
-        <v>2544.011223686036</v>
+        <v>2540.567490735515</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>-95.73042638875863</v>
       </c>
       <c r="C200" t="n">
-        <v>2542.098190969863</v>
+        <v>2539.469959666078</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>-95.80385992252599</v>
       </c>
       <c r="C201" t="n">
-        <v>2540.445458772914</v>
+        <v>2539.771698923985</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>-95.87695110757355</v>
       </c>
       <c r="C202" t="n">
-        <v>2529.735922266904</v>
+        <v>2538.511051020339</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>-95.9497031211688</v>
       </c>
       <c r="C203" t="n">
-        <v>2541.22741680812</v>
+        <v>2540.321905928541</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>-96.0221190965521</v>
       </c>
       <c r="C204" t="n">
-        <v>2553.777998643491</v>
+        <v>2539.290440110351</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>-96.09420212374643</v>
       </c>
       <c r="C205" t="n">
-        <v>2533.215591680354</v>
+        <v>2540.703538017466</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>-96.16595525034846</v>
       </c>
       <c r="C206" t="n">
-        <v>2529.535701552584</v>
+        <v>2539.960632966539</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>-96.23738148230184</v>
       </c>
       <c r="C207" t="n">
-        <v>2534.063956539921</v>
+        <v>2541.838246736394</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>-96.30848378465268</v>
       </c>
       <c r="C208" t="n">
-        <v>2550.936774477645</v>
+        <v>2538.255366509846</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>-96.37926508228824</v>
       </c>
       <c r="C209" t="n">
-        <v>2537.754805372419</v>
+        <v>2539.838800377488</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>-96.44972826065879</v>
       </c>
       <c r="C210" t="n">
-        <v>2517.984115694948</v>
+        <v>2539.804924235942</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>-96.51987616648347</v>
       </c>
       <c r="C211" t="n">
-        <v>2540.292894128379</v>
+        <v>2540.702813657075</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>-96.58971160844038</v>
       </c>
       <c r="C212" t="n">
-        <v>2566.936904223533</v>
+        <v>2539.665319570975</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>-96.65923735784136</v>
       </c>
       <c r="C213" t="n">
-        <v>2550.624225124172</v>
+        <v>2539.130944889008</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>-96.72845614929192</v>
       </c>
       <c r="C214" t="n">
-        <v>2533.707342714984</v>
+        <v>2539.662397053828</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>-96.79737068133656</v>
       </c>
       <c r="C215" t="n">
-        <v>2535.956507354047</v>
+        <v>2539.279685194197</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>-96.86598361709014</v>
       </c>
       <c r="C216" t="n">
-        <v>2549.748665573497</v>
+        <v>2539.266736597938</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>-96.93429758485529</v>
       </c>
       <c r="C217" t="n">
-        <v>2536.692391809682</v>
+        <v>2539.822652641506</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>-97.00231517872659</v>
       </c>
       <c r="C218" t="n">
-        <v>2549.41563397237</v>
+        <v>2539.659519303122</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>-97.07003895918166</v>
       </c>
       <c r="C219" t="n">
-        <v>2534.102415166941</v>
+        <v>2540.070107767001</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>-97.13747145365946</v>
       </c>
       <c r="C220" t="n">
-        <v>2548.672573022304</v>
+        <v>2541.654729375928</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>-97.20461515712634</v>
       </c>
       <c r="C221" t="n">
-        <v>2541.244761183113</v>
+        <v>2539.464149287436</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>-97.27147253262986</v>
       </c>
       <c r="C222" t="n">
-        <v>2530.512961521058</v>
+        <v>2541.636169561375</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>-97.33804601184102</v>
       </c>
       <c r="C223" t="n">
-        <v>2542.442250300053</v>
+        <v>2538.159613086113</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>-97.40433799558492</v>
       </c>
       <c r="C224" t="n">
-        <v>2539.963008764553</v>
+        <v>2539.965912354222</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>-97.47035085436025</v>
       </c>
       <c r="C225" t="n">
-        <v>2541.005904973003</v>
+        <v>2540.312701014156</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>-97.53608692884794</v>
       </c>
       <c r="C226" t="n">
-        <v>2533.517474915679</v>
+        <v>2541.530039442629</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>-97.60154853040916</v>
       </c>
       <c r="C227" t="n">
-        <v>2545.978901962861</v>
+        <v>2541.023061554978</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>-97.66673794157292</v>
       </c>
       <c r="C228" t="n">
-        <v>2549.548395033254</v>
+        <v>2537.794247181144</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>-97.73165741651374</v>
       </c>
       <c r="C229" t="n">
-        <v>2539.906986763713</v>
+        <v>2540.323118311034</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>-97.79630918151923</v>
       </c>
       <c r="C230" t="n">
-        <v>2542.716003994619</v>
+        <v>2540.40403154502</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>-97.86069543544829</v>
       </c>
       <c r="C231" t="n">
-        <v>2522.074539267235</v>
+        <v>2539.838805136864</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>-97.92481835017979</v>
       </c>
       <c r="C232" t="n">
-        <v>2545.460692028023</v>
+        <v>2540.838447800592</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>-97.98868007105216</v>
       </c>
       <c r="C233" t="n">
-        <v>2533.508779076894</v>
+        <v>2540.597489215045</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>-98.0522827172941</v>
       </c>
       <c r="C234" t="n">
-        <v>2534.008324462913</v>
+        <v>2540.056569014745</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>-98.11562838244657</v>
       </c>
       <c r="C235" t="n">
-        <v>2536.461802933045</v>
+        <v>2541.739999496257</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>-98.17871913477624</v>
       </c>
       <c r="C236" t="n">
-        <v>2555.340691861631</v>
+        <v>2539.594379475846</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>-98.24155701768072</v>
       </c>
       <c r="C237" t="n">
-        <v>2535.799881258298</v>
+        <v>2539.545456135764</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>-98.30414405008564</v>
       </c>
       <c r="C238" t="n">
-        <v>2534.513344567504</v>
+        <v>2539.190770011813</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>-98.36648222683391</v>
       </c>
       <c r="C239" t="n">
-        <v>2536.375960712188</v>
+        <v>2541.695571073308</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>-98.42857351906719</v>
       </c>
       <c r="C240" t="n">
-        <v>2540.736082858715</v>
+        <v>2537.931346810474</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>-98.49041987459992</v>
       </c>
       <c r="C241" t="n">
-        <v>2548.105292006564</v>
+        <v>2539.987168567873</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>-98.55202321828594</v>
       </c>
       <c r="C242" t="n">
-        <v>2549.984069735401</v>
+        <v>2541.057182227146</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>-98.61338545237793</v>
       </c>
       <c r="C243" t="n">
-        <v>2536.466981035764</v>
+        <v>2541.259680320024</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>-98.67450845687989</v>
       </c>
       <c r="C244" t="n">
-        <v>2539.689697549933</v>
+        <v>2538.767352904924</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>-98.73539408989276</v>
       </c>
       <c r="C245" t="n">
-        <v>2526.372068399342</v>
+        <v>2539.23986274013</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>-98.79604418795336</v>
       </c>
       <c r="C246" t="n">
-        <v>2533.0819946226</v>
+        <v>2538.724923181864</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>-98.85646056636669</v>
       </c>
       <c r="C247" t="n">
-        <v>2523.718241119986</v>
+        <v>2539.784664828916</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>-98.9166450195321</v>
       </c>
       <c r="C248" t="n">
-        <v>2544.291025959458</v>
+        <v>2538.422510007436</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>-98.97659932126297</v>
       </c>
       <c r="C249" t="n">
-        <v>2519.818410249743</v>
+        <v>2538.373618795265</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>-99.03632522510041</v>
       </c>
       <c r="C250" t="n">
-        <v>2536.361111336416</v>
+        <v>2541.22736619407</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>-99.09582446462105</v>
       </c>
       <c r="C251" t="n">
-        <v>2528.335729823578</v>
+        <v>2539.404212497952</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>-99.15509875373891</v>
       </c>
       <c r="C252" t="n">
-        <v>2528.855930578067</v>
+        <v>2539.226049597915</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>-99.21414978700167</v>
       </c>
       <c r="C253" t="n">
-        <v>2541.769608235115</v>
+        <v>2541.35407930578</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>-99.27297923988132</v>
       </c>
       <c r="C254" t="n">
-        <v>2550.481984203216</v>
+        <v>2539.992231063592</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>-99.33158876905944</v>
       </c>
       <c r="C255" t="n">
-        <v>2525.806368687052</v>
+        <v>2541.255047886197</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>-99.38998001270707</v>
       </c>
       <c r="C256" t="n">
-        <v>2530.28597196893</v>
+        <v>2540.982898418692</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>-99.4481545907596</v>
       </c>
       <c r="C257" t="n">
-        <v>2544.87863804055</v>
+        <v>2539.528365718486</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>-99.50611410518619</v>
       </c>
       <c r="C258" t="n">
-        <v>2540.312199167373</v>
+        <v>2538.727855253159</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>-99.56386014025472</v>
       </c>
       <c r="C259" t="n">
-        <v>2542.479529751286</v>
+        <v>2539.305476468244</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>-99.62139426279144</v>
       </c>
       <c r="C260" t="n">
-        <v>2525.763782968292</v>
+        <v>2538.193539946474</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>-99.67871802243616</v>
       </c>
       <c r="C261" t="n">
-        <v>2536.943330427237</v>
+        <v>2541.651731241549</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>-99.73583295189263</v>
       </c>
       <c r="C262" t="n">
-        <v>2547.823034148617</v>
+        <v>2541.006730510332</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>-99.79274056717452</v>
       </c>
       <c r="C263" t="n">
-        <v>2555.395619546605</v>
+        <v>2539.826898765865</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>-99.84944236784673</v>
       </c>
       <c r="C264" t="n">
-        <v>2543.484416368972</v>
+        <v>2541.460326356663</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>-99.90593983726271</v>
       </c>
       <c r="C265" t="n">
-        <v>2546.946768456296</v>
+        <v>2538.718230354473</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>-99.96223444279701</v>
       </c>
       <c r="C266" t="n">
-        <v>2539.966881773225</v>
+        <v>2539.896830628975</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>-100.0183276360742</v>
       </c>
       <c r="C267" t="n">
-        <v>2554.086330031945</v>
+        <v>2539.965791569838</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>-100.0742208531935</v>
       </c>
       <c r="C268" t="n">
-        <v>2557.597886122424</v>
+        <v>2539.662013979605</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>-100.1299155149491</v>
       </c>
       <c r="C269" t="n">
-        <v>2540.516779998725</v>
+        <v>2541.480977254561</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>-100.185413027047</v>
       </c>
       <c r="C270" t="n">
-        <v>2553.434036163836</v>
+        <v>2539.361643771185</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>-100.2407147803182</v>
       </c>
       <c r="C271" t="n">
-        <v>2539.929540805078</v>
+        <v>2539.629975168168</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>-100.2958221509274</v>
       </c>
       <c r="C272" t="n">
-        <v>2530.659283232177</v>
+        <v>2540.767606801749</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>-100.3507365005786</v>
       </c>
       <c r="C273" t="n">
-        <v>2531.584498871197</v>
+        <v>2539.843458331678</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>-100.4054591767173</v>
       </c>
       <c r="C274" t="n">
-        <v>2544.876254121892</v>
+        <v>2539.103294218912</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>-100.4599915127284</v>
       </c>
       <c r="C275" t="n">
-        <v>2547.753376312265</v>
+        <v>2539.580068469826</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>-100.5143348281315</v>
       </c>
       <c r="C276" t="n">
-        <v>2547.271684320952</v>
+        <v>2540.089116587282</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>-100.5684904287725</v>
       </c>
       <c r="C277" t="n">
-        <v>2536.210565360591</v>
+        <v>2540.706570217284</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>-100.6224596070114</v>
       </c>
       <c r="C278" t="n">
-        <v>2532.214452303569</v>
+        <v>2540.913169656872</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>-100.676243641908</v>
       </c>
       <c r="C279" t="n">
-        <v>2534.61469738741</v>
+        <v>2539.722410468825</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>-100.7298437994035</v>
       </c>
       <c r="C280" t="n">
-        <v>2543.936860224556</v>
+        <v>2539.287518616453</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>-100.783261332499</v>
       </c>
       <c r="C281" t="n">
-        <v>2540.255912847606</v>
+        <v>2541.5838013069</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>-100.8364974814318</v>
       </c>
       <c r="C282" t="n">
-        <v>2542.57666520465</v>
+        <v>2540.341511130656</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>-100.8895534738478</v>
       </c>
       <c r="C283" t="n">
-        <v>2530.511994068445</v>
+        <v>2539.767751375659</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>-100.9424305249715</v>
       </c>
       <c r="C284" t="n">
-        <v>2540.72326578914</v>
+        <v>2540.398946054267</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>-100.9951298377729</v>
       </c>
       <c r="C285" t="n">
-        <v>2539.776678605277</v>
+        <v>2539.049252311132</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>-101.047652603132</v>
       </c>
       <c r="C286" t="n">
-        <v>2533.419839605078</v>
+        <v>2540.026257127336</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>-101.0999999999999</v>
       </c>
       <c r="C287" t="n">
-        <v>2532.023932007654</v>
+        <v>2539.571475130694</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>-101.1521731955579</v>
       </c>
       <c r="C288" t="n">
-        <v>2539.839588065518</v>
+        <v>2542.016157911052</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>-101.2041733453733</v>
       </c>
       <c r="C289" t="n">
-        <v>2534.002699171075</v>
+        <v>2541.306697683699</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>-101.2560015935533</v>
       </c>
       <c r="C290" t="n">
-        <v>2550.489232655254</v>
+        <v>2539.968264581606</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>-101.3076590728961</v>
       </c>
       <c r="C291" t="n">
-        <v>2542.794344117079</v>
+        <v>2539.456675208085</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>-101.3591469050391</v>
       </c>
       <c r="C292" t="n">
-        <v>2550.474045353203</v>
+        <v>2540.23949549294</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>-101.4104662006052</v>
       </c>
       <c r="C293" t="n">
-        <v>2531.984262312333</v>
+        <v>2539.862510497268</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>-101.4616180593466</v>
       </c>
       <c r="C294" t="n">
-        <v>2522.458593046144</v>
+        <v>2541.098188825296</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>-101.5126035702862</v>
       </c>
       <c r="C295" t="n">
-        <v>2520.139297293659</v>
+        <v>2538.325417801234</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>-101.5634238118567</v>
       </c>
       <c r="C296" t="n">
-        <v>2520.595789186698</v>
+        <v>2541.270292855793</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>-101.6140798520374</v>
       </c>
       <c r="C297" t="n">
-        <v>2540.762681039107</v>
+        <v>2540.288001484756</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>-101.664572748489</v>
       </c>
       <c r="C298" t="n">
-        <v>2539.15842180277</v>
+        <v>2538.793111174028</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>-101.7149035486859</v>
       </c>
       <c r="C299" t="n">
-        <v>2550.02934276363</v>
+        <v>2539.611077664611</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>-101.7650732900469</v>
       </c>
       <c r="C300" t="n">
-        <v>2529.722374110347</v>
+        <v>2539.007093408007</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>-101.8150830000632</v>
       </c>
       <c r="C301" t="n">
-        <v>2533.881938385629</v>
+        <v>2539.795361480432</v>
       </c>
     </row>
   </sheetData>
